--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaggle\cmi-submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4AD616-2582-4E69-94FE-CCB5E67A1797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF66BA9D-7304-41C3-8C9B-E067AC280C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1010" yWindow="2730" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="3000" windowWidth="19200" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>imu</t>
   </si>
@@ -51,32 +51,335 @@
     <t xml:space="preserve">		</t>
   </si>
   <si>
-    <t xml:space="preserve">重新训练		</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特征工程	</t>
-  </si>
-  <si>
-    <t>修改config</t>
-  </si>
-  <si>
-    <t>样本权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>池化max-&gt;avg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mask padding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多模态架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度分支</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">重新训练		</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">特征工程	</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>多模态架构</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>config</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>样本权重</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>池化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>max-&gt;avg</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>温度分支</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>频域与聚合特征工程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>去除特征工程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>调大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>batch size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>lr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>四倍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imu batch size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>lr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调回</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调参</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意到小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>batch size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>lb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变高，可能体现了大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>batch size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的泛化能力弱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imu batch size 64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +401,32 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,8 +449,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -402,184 +736,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.58203125" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="8.6640625" style="2"/>
+    <col min="6" max="6" width="20.58203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0.67710000000000004</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.78459999999999996</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <f>(B2+C2)/2</f>
         <v>0.73085</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
         <v>0.67710000000000004</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.79420000000000002</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D10" si="0">(B3+C3)/2</f>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D16" si="0">(B3+C3)/2</f>
         <v>0.73565000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
         <v>0.73329999999999995</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.8125</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>0.77289999999999992</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
         <v>0.72840000000000005</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.81410000000000005</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>0.77124999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.78</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
         <v>0.73740000000000006</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.82</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>0.77869999999999995</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0.78</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
         <v>0.74299999999999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.82189999999999996</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>0.78244999999999998</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
         <v>0.74560000000000004</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.83540000000000003</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>0.79049999999999998</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
         <v>0.74319999999999997</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.82840000000000003</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>0.78580000000000005</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0.81</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.74829999999999997</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.83350000000000002</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>0.79089999999999994</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79059999999999997</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79330000000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.75219999999999998</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.78129999999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80854999999999999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.74350000000000005</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:D16" si="1">(B15+C15)/2</f>
+        <v>0.78964999999999996</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.74370000000000003</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.78974999999999995</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.81</v>
       </c>
     </row>
